--- a/scrapImobiliaria.xlsx
+++ b/scrapImobiliaria.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,15 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Endereço</t>
+          <t>Aluguel</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Aluguel</t>
+          <t>Área</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>Área</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
@@ -451,27 +446,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Imóveis Comerciais para alugar no Helena - Londrina/PR</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>Sob Consulta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sob Consulta</t>
+          <t>675m²total</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                                          675m² área total
-                                       </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de imóveis comerciais para alugar em Londrina
                                  ** SISTEMA BTS **( CONSTROI CONFORME SEU PROJETO)
@@ -485,27 +473,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Terrenos para alugar no Alpes - Londrina/PR</t>
+          <t>Terrenos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>Sob Consulta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sob Consulta</t>
+          <t>651m²total</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                                          651m² área total
-                                       </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de terrenos para alugar em Londrina
                                  Terreno com 651,02m², ao lado do imóvel de número 640, esquina com a Rua Oulavo Benato.
@@ -517,27 +498,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apartamento no Silvia Helena, de 3 quartos para alugar no Centro - Londrina/PR</t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>Sob Consulta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sob Consulta</t>
+          <t>117m²total</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-3 Dormitórios
-                                       </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de apartamento para alugar em Londrina
                                  Apartamento com 03 dormitórios, sala, cozinha, WC social, área de serviço e garagem.
@@ -549,27 +523,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apartamento no Prost De Souza, de 1 quarto, 16 m² para alugar no Londrilar - Londrina/PR</t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>R$ 250,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R$ 250</t>
+          <t>16m²total</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-1 Dormitórios
-                                       </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de apartamento para alugar em Londrina
                                  ED. PROST DE SOUZA, locação de garagem para 01 carro.
@@ -581,27 +548,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Terrenos para alugar no Ouro Preto - Londrina/PR</t>
+          <t>Terrenos</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R$ 300</t>
+          <t>250m²total</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                                          250m² área total
-                                       </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de terrenos para alugar em Londrina
                                  A Imobiliária Perez oferece a você mais uma ótima oportunidade de terreno para locação em Londrina.
@@ -614,27 +574,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Terrenos para alugar no Waldemar Hauer - Londrina/PR</t>
+          <t>Terrenos</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>R$ 350,00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R$ 350</t>
+          <t>344m²total</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                                          344m² área total
-                                       </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de terrenos para alugar em Londrina
                                  A Imobiliária Perez oferece à você mais uma ótima oportunidade de terreno comercial para locação em Londrina.
@@ -647,27 +600,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Casa, de 1 quarto para alugar no Parque Residencial Joaquim Toledo Piza - Londrina/PR</t>
+          <t>Casa,</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>R$ 450,00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R$ 450</t>
+          <t>45m²total</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-1 Dormitórios
-                                       </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de casa para alugar em Londrina
                                  Casa de alvenaria com 01 dormitório, sala, cozinha e WC social. 
@@ -679,27 +625,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Salas no Autolon para alugar no Centro - Londrina/PR</t>
+          <t>Salas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>R$ 450,00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R$ 450</t>
+          <t>29m²total</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                                          29m² área total
-                                       </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de salas para alugar em Londrina
                                  A Imobiliária Perez oferece a você mais uma ótima oportunidade de barracão para locação em Londrina.
@@ -713,27 +652,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Salas no Edificio Maria Renilda para alugar no Centro - Londrina/PR</t>
+          <t>Salas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>R$ 450,00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R$ 450</t>
+          <t>20m²total</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                                          20m² área total
-                                       </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de salas para alugar em Londrina
                                  A Imobiliária Perez oferece a você mais uma ótima oportunidade de sala comercial para locação em Londrina.
@@ -746,27 +678,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Salas no Maria Renilda para alugar no Centro - Londrina/PR</t>
+          <t>Salas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>londrina-PR</t>
+          <t>R$ 450,00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R$ 450</t>
+          <t>32m²total</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                                          32m² área total
-                                       </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve"> A Imobiliária Perez oferece a você mais uma oportunidade de salas para alugar em Londrina
                                  Sala comercial com aproximadamente 20m², recepção e WC coletivo.
